--- a/Antonio-Feed/Wiring Harnesses/Feed/48v Cryo Board to Cryo Cooler (the monster)/List of materials (the monster).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/48v Cryo Board to Cryo Cooler (the monster)/List of materials (the monster).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahschoultz/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/48v Cryo Board to Cryo Cooler (the monster)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Wiring Harness Directions/48v Cryo Board to Cryo Cooler (the monster)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FEB0A4-AD3D-7B43-AF47-03F83B7469E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCDA268-B937-054C-8B4C-CC12A8AD5D09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="480" windowWidth="20020" windowHeight="13860" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
+    <workbookView xWindow="4220" yWindow="3460" windowWidth="20020" windowHeight="13860" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>Material</t>
   </si>
@@ -201,16 +201,34 @@
     <t>Expanding metal braid</t>
   </si>
   <si>
-    <t>1/4 PT3 Plastic braid</t>
-  </si>
-  <si>
     <t>TECHFLEX</t>
   </si>
   <si>
-    <t>PT30.25BK</t>
-  </si>
-  <si>
     <t>WireCare</t>
+  </si>
+  <si>
+    <t>.203 Metal Braid</t>
+  </si>
+  <si>
+    <t>Glenari</t>
+  </si>
+  <si>
+    <t>100-001A203</t>
+  </si>
+  <si>
+    <t>654-100001A203</t>
+  </si>
+  <si>
+    <t>22in</t>
+  </si>
+  <si>
+    <t>19mm adhesive shrink tube</t>
+  </si>
+  <si>
+    <t>1/4 plastic braid</t>
+  </si>
+  <si>
+    <t>PTN0.25BK</t>
   </si>
 </sst>
 </file>
@@ -606,7 +624,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,6 +725,9 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
@@ -727,12 +748,24 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
+      <c r="A5" t="s">
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
@@ -741,23 +774,23 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>55</v>
+      <c r="A6" t="s">
+        <v>63</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>57</v>
+      <c r="G6" t="s">
+        <v>64</v>
       </c>
       <c r="L6" t="s">
         <v>53</v>
@@ -795,8 +828,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
+      <c r="A9" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
@@ -809,7 +842,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C10">
@@ -821,7 +854,7 @@
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C11">

--- a/Antonio-Feed/Wiring Harnesses/Feed/48v Cryo Board to Cryo Cooler (the monster)/List of materials (the monster).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/48v Cryo Board to Cryo Cooler (the monster)/List of materials (the monster).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Wiring Harness Directions/48v Cryo Board to Cryo Cooler (the monster)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/48v Cryo Board to Cryo Cooler (the monster)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCDA268-B937-054C-8B4C-CC12A8AD5D09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB8FCD4-3359-3040-B992-E99D695839E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="3460" windowWidth="20020" windowHeight="13860" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
+    <workbookView xWindow="5520" yWindow="1660" windowWidth="30320" windowHeight="17300" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>Material</t>
   </si>
@@ -150,33 +150,15 @@
     <t>ALPHA WIRE</t>
   </si>
   <si>
-    <t>6712 BK005</t>
-  </si>
-  <si>
-    <t>602-6712-100-02</t>
-  </si>
-  <si>
     <t>Orange 14 awg</t>
   </si>
   <si>
     <t>White 14 awg</t>
   </si>
   <si>
-    <t>Flat crimper</t>
-  </si>
-  <si>
     <t>Crimping on flat tips</t>
   </si>
   <si>
-    <t>Flat tips</t>
-  </si>
-  <si>
-    <t>75 magnent</t>
-  </si>
-  <si>
-    <t>43 magnent</t>
-  </si>
-  <si>
     <t>Magnents</t>
   </si>
   <si>
@@ -229,13 +211,70 @@
   </si>
   <si>
     <t>PTN0.25BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferrule connector </t>
+  </si>
+  <si>
+    <t>Phoenix Contact</t>
+  </si>
+  <si>
+    <t>651-3200522</t>
+  </si>
+  <si>
+    <t>6712 BK001</t>
+  </si>
+  <si>
+    <t>602-6712-1000-02</t>
+  </si>
+  <si>
+    <t>3M Electronic Specialty</t>
+  </si>
+  <si>
+    <t>M14BCK</t>
+  </si>
+  <si>
+    <t>517-M14BCK</t>
+  </si>
+  <si>
+    <t>Cable Extension Terminals</t>
+  </si>
+  <si>
+    <t>Wire extenders</t>
+  </si>
+  <si>
+    <t>Fair-Rite</t>
+  </si>
+  <si>
+    <t>623-2675665702</t>
+  </si>
+  <si>
+    <t>Large 75 magnent</t>
+  </si>
+  <si>
+    <t>Cable Extension Terminal Crimper</t>
+  </si>
+  <si>
+    <t>TE Connectivity / Raychem</t>
+  </si>
+  <si>
+    <t>TAT-125-3/4-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125034</t>
+  </si>
+  <si>
+    <t>623-2643665702</t>
+  </si>
+  <si>
+    <t>Large 43 magnent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,20 +305,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -294,13 +332,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,7 +664,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +675,7 @@
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" customWidth="1"/>
-    <col min="12" max="12" width="27.1640625" customWidth="1"/>
+    <col min="12" max="12" width="28.1640625" customWidth="1"/>
     <col min="13" max="13" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -670,22 +710,22 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>51</v>
+      <c r="G2" t="s">
+        <v>45</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
@@ -696,20 +736,20 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B3" s="8"/>
       <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>49</v>
+      <c r="G3" t="s">
+        <v>43</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -726,19 +766,19 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>39</v>
+      <c r="G4" t="s">
+        <v>63</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -748,23 +788,23 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>57</v>
+      <c r="A5" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -775,28 +815,28 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -829,37 +869,73 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
       </c>
       <c r="L9" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>45</v>
+      <c r="A10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10">
+        <v>2675665702</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
       <c r="L10" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>46</v>
+      <c r="A11" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11">
+        <v>2643665702</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
       <c r="L11" t="s">
         <v>33</v>
       </c>
@@ -868,15 +944,27 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
+      <c r="A12" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>6</v>
       </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
       <c r="L12" t="s">
         <v>35</v>
       </c>
@@ -885,20 +973,41 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>3200522</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L14" s="2"/>
     </row>
   </sheetData>

--- a/Antonio-Feed/Wiring Harnesses/Feed/48v Cryo Board to Cryo Cooler (the monster)/List of materials (the monster).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/48v Cryo Board to Cryo Cooler (the monster)/List of materials (the monster).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/48v Cryo Board to Cryo Cooler (the monster)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB8FCD4-3359-3040-B992-E99D695839E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED89497-52D9-984D-9108-125AF1D66690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="1660" windowWidth="30320" windowHeight="17300" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
+    <workbookView xWindow="2680" yWindow="1260" windowWidth="30320" windowHeight="17300" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
   <si>
     <t>Material</t>
   </si>
@@ -66,15 +66,9 @@
     <t>Order Number of Distributor</t>
   </si>
   <si>
-    <t>Shrink tube</t>
-  </si>
-  <si>
     <t>Metal braid</t>
   </si>
   <si>
-    <t>Plastic braid</t>
-  </si>
-  <si>
     <t>Isolation</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>Crimping on flat tips</t>
   </si>
   <si>
-    <t>Magnents</t>
-  </si>
-  <si>
     <t>Cryo Cooler Connector</t>
   </si>
   <si>
@@ -201,9 +192,6 @@
     <t>654-100001A203</t>
   </si>
   <si>
-    <t>22in</t>
-  </si>
-  <si>
     <t>19mm adhesive shrink tube</t>
   </si>
   <si>
@@ -268,13 +256,79 @@
   </si>
   <si>
     <t>Large 43 magnent</t>
+  </si>
+  <si>
+    <t>4.8MM adhesive shrink tube</t>
+  </si>
+  <si>
+    <t>1 in</t>
+  </si>
+  <si>
+    <t>TAT-125-3/16-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125316</t>
+  </si>
+  <si>
+    <t>3 in</t>
+  </si>
+  <si>
+    <t>18 in</t>
+  </si>
+  <si>
+    <t>17 in</t>
+  </si>
+  <si>
+    <t>16 in</t>
+  </si>
+  <si>
+    <t>12 in</t>
+  </si>
+  <si>
+    <t>4 in</t>
+  </si>
+  <si>
+    <t>TAT-125-1/4-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125014</t>
+  </si>
+  <si>
+    <t>6.4mm adehsive shrink tube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7mm adhesive shrink tube </t>
+  </si>
+  <si>
+    <t>TAT-125-1/2-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125012</t>
+  </si>
+  <si>
+    <t>2 in</t>
+  </si>
+  <si>
+    <t>Plastic Braid</t>
+  </si>
+  <si>
+    <t>Terminal covers and magnent stops</t>
+  </si>
+  <si>
+    <t>Magnent</t>
+  </si>
+  <si>
+    <t>Magnent cover</t>
+  </si>
+  <si>
+    <t>Comes with cryocooler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -305,19 +359,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -338,7 +393,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -347,6 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BA75E2-A133-C247-9618-E9CB2A5F5006}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>3</v>
@@ -710,52 +765,58 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -766,218 +827,260 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M8" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>71</v>
+      <c r="A10" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
       </c>
-      <c r="E10">
-        <v>2675665702</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
+      <c r="E10" t="s">
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>77</v>
+      <c r="A11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E11">
-        <v>2643665702</v>
+        <v>2675665702</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <v>2643665702</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
         <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -985,30 +1088,56 @@
       <c r="D13" t="s">
         <v>60</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14">
         <v>3200522</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14">
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Antonio-Feed/Wiring Harnesses/Feed/48v Cryo Board to Cryo Cooler (the monster)/List of materials (the monster).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/48v Cryo Board to Cryo Cooler (the monster)/List of materials (the monster).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/48v Cryo Board to Cryo Cooler (the monster)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED89497-52D9-984D-9108-125AF1D66690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7132E6F0-4EB5-974E-861A-F57EE4361DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1260" windowWidth="30320" windowHeight="17300" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
   <si>
     <t>Material</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Shielding</t>
   </si>
   <si>
-    <t>Wire tips</t>
-  </si>
-  <si>
     <t>Mouser</t>
   </si>
   <si>
@@ -201,15 +198,6 @@
     <t>PTN0.25BK</t>
   </si>
   <si>
-    <t xml:space="preserve">Ferrule connector </t>
-  </si>
-  <si>
-    <t>Phoenix Contact</t>
-  </si>
-  <si>
-    <t>651-3200522</t>
-  </si>
-  <si>
     <t>6712 BK001</t>
   </si>
   <si>
@@ -322,6 +310,12 @@
   </si>
   <si>
     <t>Comes with cryocooler</t>
+  </si>
+  <si>
+    <t>Rubber Feed Through Protector</t>
+  </si>
+  <si>
+    <t>Protects wire from being cut</t>
   </si>
 </sst>
 </file>
@@ -395,13 +389,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,7 +713,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>3</v>
@@ -765,58 +759,58 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
         <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
         <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -827,317 +821,306 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
         <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
       <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
         <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
         <v>44</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
         <v>24</v>
-      </c>
-      <c r="M7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
         <v>26</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>2675665702</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
         <v>31</v>
-      </c>
-      <c r="M11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>93</v>
+        <v>69</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>2643665702</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
         <v>33</v>
-      </c>
-      <c r="M12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>55</v>
+      <c r="A14" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14">
-        <v>3200522</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="L15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
